--- a/2 semester/LogicBase/WorkSpace/Lab4/Calc Daniil.xlsx
+++ b/2 semester/LogicBase/WorkSpace/Lab4/Calc Daniil.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="120">
   <si>
     <t>0000'0000'0011'0101</t>
   </si>
@@ -132,9 +132,6 @@
     <t xml:space="preserve">e = </t>
   </si>
   <si>
-    <t xml:space="preserve">f = </t>
-  </si>
-  <si>
     <t>35 - 45</t>
   </si>
   <si>
@@ -267,16 +264,118 @@
     <t>0.28F6</t>
   </si>
   <si>
-    <t>0.87AE-(+0.B0A4)</t>
-  </si>
-  <si>
     <t>-(0.B0A4-0.87AE)</t>
   </si>
   <si>
-    <t>-0.87AE-(-0.B0A4)</t>
-  </si>
-  <si>
-    <t>-0.87AE+0.B0A4</t>
+    <t xml:space="preserve">[f]2 = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[-f]2 = </t>
+  </si>
+  <si>
+    <t>y = f + g</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[g]2 = </t>
+  </si>
+  <si>
+    <t>[f]    +    [g]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">f + g </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[-g]2 = </t>
+  </si>
+  <si>
+    <t>y = f – g = f + (-g)</t>
+  </si>
+  <si>
+    <t>[f]    +        [-g]</t>
+  </si>
+  <si>
+    <t>y = -f + g</t>
+  </si>
+  <si>
+    <t>[-f]    +        [g]</t>
+  </si>
+  <si>
+    <t>y = - f – g = - f + (-g)</t>
+  </si>
+  <si>
+    <t>[-f]    +        [-g]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-f +(-g) </t>
+  </si>
+  <si>
+    <t>0011'0101'1011'0001</t>
+  </si>
+  <si>
+    <t>1011'1010'0111'1000</t>
+  </si>
+  <si>
+    <t>1100'1010'0100'1111</t>
+  </si>
+  <si>
+    <t>0100'0101'1000'1000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">g = </t>
+  </si>
+  <si>
+    <t>1111'0000'0010'1001</t>
+  </si>
+  <si>
+    <t>-f + g</t>
+  </si>
+  <si>
+    <t>1000'0100'1100'0111</t>
+  </si>
+  <si>
+    <t>0000'1111'1101'0111</t>
+  </si>
+  <si>
+    <t>1000'1111'1101'0111</t>
+  </si>
+  <si>
+    <t>-F.D7</t>
+  </si>
+  <si>
+    <t>1111'1011'0011'1001</t>
+  </si>
+  <si>
+    <t>-7B.39</t>
+  </si>
+  <si>
+    <t>F.D7</t>
+  </si>
+  <si>
+    <t>35.B1+(-45.88)</t>
+  </si>
+  <si>
+    <t>-(45.88-35.B1)</t>
+  </si>
+  <si>
+    <t>0.87AE+(-0.B0A4)</t>
+  </si>
+  <si>
+    <t>-0.87AE+(-0.B0A4)</t>
+  </si>
+  <si>
+    <t>-(0.87AE+0.B0A4)</t>
+  </si>
+  <si>
+    <t>-35.B1+(-45.88)</t>
+  </si>
+  <si>
+    <t>-(35.B1+45.88)</t>
+  </si>
+  <si>
+    <t>-35.B1+45.88</t>
+  </si>
+  <si>
+    <t>45.88-35.B1</t>
   </si>
 </sst>
 </file>
@@ -488,7 +587,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -524,36 +623,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -578,10 +647,46 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -876,10 +981,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AG48"/>
+  <dimension ref="A1:AG73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G13" workbookViewId="0">
-      <selection activeCell="AA15" sqref="AA15"/>
+    <sheetView tabSelected="1" topLeftCell="E34" workbookViewId="0">
+      <selection activeCell="AA62" sqref="AA62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -902,61 +1007,61 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="34" t="s">
-        <v>0</v>
-      </c>
-      <c r="F1" s="34"/>
+      <c r="E1" s="43" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" s="43"/>
       <c r="G1" s="1"/>
-      <c r="H1" s="31" t="s">
+      <c r="H1" s="48" t="s">
         <v>14</v>
       </c>
-      <c r="I1" s="31"/>
-      <c r="J1" s="31"/>
-      <c r="K1" s="31"/>
-      <c r="L1" s="31"/>
-      <c r="M1" s="31"/>
-      <c r="N1" s="31"/>
-      <c r="O1" s="31"/>
-      <c r="P1" s="31"/>
-      <c r="Q1" s="31"/>
-      <c r="R1" s="31"/>
-      <c r="S1" s="31"/>
-      <c r="T1" s="31"/>
-      <c r="U1" s="31"/>
-      <c r="V1" s="31"/>
-      <c r="W1" s="31"/>
-      <c r="X1" s="31"/>
-      <c r="Y1" s="31"/>
-      <c r="AB1" s="36" t="s">
+      <c r="I1" s="48"/>
+      <c r="J1" s="48"/>
+      <c r="K1" s="48"/>
+      <c r="L1" s="48"/>
+      <c r="M1" s="48"/>
+      <c r="N1" s="48"/>
+      <c r="O1" s="48"/>
+      <c r="P1" s="48"/>
+      <c r="Q1" s="48"/>
+      <c r="R1" s="48"/>
+      <c r="S1" s="48"/>
+      <c r="T1" s="48"/>
+      <c r="U1" s="48"/>
+      <c r="V1" s="48"/>
+      <c r="W1" s="48"/>
+      <c r="X1" s="48"/>
+      <c r="Y1" s="48"/>
+      <c r="AB1" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="AC1" s="36"/>
-      <c r="AD1" s="36" t="s">
+      <c r="AC1" s="39"/>
+      <c r="AD1" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="AE1" s="36"/>
-      <c r="AF1" s="36" t="s">
+      <c r="AE1" s="39"/>
+      <c r="AF1" s="39" t="s">
         <v>25</v>
       </c>
-      <c r="AG1" s="36"/>
+      <c r="AG1" s="39"/>
     </row>
     <row r="2" spans="1:33" ht="15" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B2" s="39">
+      <c r="B2" s="29">
         <v>53</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="35" t="s">
-        <v>1</v>
-      </c>
-      <c r="F2" s="35"/>
+      <c r="E2" s="44" t="s">
+        <v>1</v>
+      </c>
+      <c r="F2" s="44"/>
       <c r="G2" s="1"/>
-      <c r="H2" s="37" t="s">
+      <c r="H2" s="45" t="s">
         <v>16</v>
       </c>
       <c r="I2" s="25"/>
@@ -1011,36 +1116,36 @@
       <c r="AA2" t="s">
         <v>21</v>
       </c>
-      <c r="AB2" s="36" t="s">
+      <c r="AB2" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="AC2" s="36"/>
-      <c r="AD2" s="36" t="s">
+      <c r="AC2" s="39"/>
+      <c r="AD2" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="AE2" s="36"/>
-      <c r="AF2" s="36">
+      <c r="AE2" s="39"/>
+      <c r="AF2" s="39">
         <v>-10</v>
       </c>
-      <c r="AG2" s="36"/>
+      <c r="AG2" s="39"/>
     </row>
     <row r="3" spans="1:33">
       <c r="A3" t="s">
         <v>34</v>
       </c>
-      <c r="B3" s="39">
+      <c r="B3" s="29">
         <v>-69</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="34" t="s">
+      <c r="E3" s="43" t="s">
         <v>20</v>
       </c>
-      <c r="F3" s="34"/>
+      <c r="F3" s="43"/>
       <c r="G3" s="1"/>
-      <c r="H3" s="38"/>
+      <c r="H3" s="46"/>
       <c r="I3" s="25"/>
       <c r="J3" s="20">
         <v>1</v>
@@ -1093,38 +1198,38 @@
       <c r="AA3" t="s">
         <v>27</v>
       </c>
-      <c r="AB3" s="42" t="s">
+      <c r="AB3" s="32" t="s">
+        <v>39</v>
+      </c>
+      <c r="AC3" s="32" t="s">
+        <v>38</v>
+      </c>
+      <c r="AD3" s="33" t="s">
         <v>40</v>
       </c>
-      <c r="AC3" s="42" t="s">
-        <v>39</v>
-      </c>
-      <c r="AD3" s="43" t="s">
+      <c r="AE3" s="33" t="s">
         <v>41</v>
       </c>
-      <c r="AE3" s="43" t="s">
+      <c r="AF3" s="40" t="s">
         <v>42</v>
       </c>
-      <c r="AF3" s="45" t="s">
-        <v>43</v>
-      </c>
-      <c r="AG3" s="45"/>
+      <c r="AG3" s="40"/>
     </row>
     <row r="4" spans="1:33">
       <c r="A4" t="s">
         <v>35</v>
       </c>
-      <c r="B4" s="39" t="s">
+      <c r="B4" s="29" t="s">
         <v>30</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="34" t="s">
+      <c r="E4" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="34"/>
+      <c r="F4" s="43"/>
       <c r="G4" s="1"/>
       <c r="H4" s="7" t="s">
         <v>7</v>
@@ -1183,7 +1288,7 @@
       <c r="A5" t="s">
         <v>36</v>
       </c>
-      <c r="B5" s="41" t="s">
+      <c r="B5" s="31" t="s">
         <v>31</v>
       </c>
       <c r="C5" s="1"/>
@@ -1193,35 +1298,35 @@
       <c r="G5" s="1"/>
       <c r="H5" s="4"/>
       <c r="I5" s="5"/>
-      <c r="J5" s="29" t="s">
+      <c r="J5" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="K5" s="30"/>
-      <c r="L5" s="30"/>
+      <c r="K5" s="42"/>
+      <c r="L5" s="42"/>
       <c r="M5" s="6">
         <v>1</v>
       </c>
-      <c r="N5" s="29" t="s">
+      <c r="N5" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="O5" s="30"/>
-      <c r="P5" s="30"/>
+      <c r="O5" s="42"/>
+      <c r="P5" s="42"/>
       <c r="Q5" s="6">
         <v>0</v>
       </c>
-      <c r="R5" s="29" t="s">
+      <c r="R5" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="S5" s="30"/>
-      <c r="T5" s="30"/>
+      <c r="S5" s="42"/>
+      <c r="T5" s="42"/>
       <c r="U5" s="6">
         <v>0</v>
       </c>
-      <c r="V5" s="29" t="s">
+      <c r="V5" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="W5" s="30"/>
-      <c r="X5" s="30"/>
+      <c r="W5" s="42"/>
+      <c r="X5" s="42"/>
       <c r="Y5" s="6">
         <v>0</v>
       </c>
@@ -1230,7 +1335,7 @@
       <c r="A6" t="s">
         <v>37</v>
       </c>
-      <c r="B6" s="40" t="s">
+      <c r="B6" s="30" t="s">
         <v>32</v>
       </c>
       <c r="C6" s="1"/>
@@ -1248,9 +1353,9 @@
     </row>
     <row r="7" spans="1:33">
       <c r="A7" t="s">
-        <v>38</v>
-      </c>
-      <c r="B7" s="41" t="s">
+        <v>101</v>
+      </c>
+      <c r="B7" s="31" t="s">
         <v>33</v>
       </c>
       <c r="C7" s="1"/>
@@ -1258,26 +1363,26 @@
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
-      <c r="H7" s="31" t="s">
+      <c r="H7" s="48" t="s">
         <v>13</v>
       </c>
-      <c r="I7" s="31"/>
-      <c r="J7" s="31"/>
-      <c r="K7" s="31"/>
-      <c r="L7" s="31"/>
-      <c r="M7" s="31"/>
-      <c r="N7" s="31"/>
-      <c r="O7" s="31"/>
-      <c r="P7" s="31"/>
-      <c r="Q7" s="31"/>
-      <c r="R7" s="31"/>
-      <c r="S7" s="31"/>
-      <c r="T7" s="31"/>
-      <c r="U7" s="31"/>
-      <c r="V7" s="31"/>
-      <c r="W7" s="31"/>
-      <c r="X7" s="31"/>
-      <c r="Y7" s="31"/>
+      <c r="I7" s="48"/>
+      <c r="J7" s="48"/>
+      <c r="K7" s="48"/>
+      <c r="L7" s="48"/>
+      <c r="M7" s="48"/>
+      <c r="N7" s="48"/>
+      <c r="O7" s="48"/>
+      <c r="P7" s="48"/>
+      <c r="Q7" s="48"/>
+      <c r="R7" s="48"/>
+      <c r="S7" s="48"/>
+      <c r="T7" s="48"/>
+      <c r="U7" s="48"/>
+      <c r="V7" s="48"/>
+      <c r="W7" s="48"/>
+      <c r="X7" s="48"/>
+      <c r="Y7" s="48"/>
     </row>
     <row r="8" spans="1:33">
       <c r="A8" s="1"/>
@@ -1287,7 +1392,7 @@
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
-      <c r="H8" s="32" t="s">
+      <c r="H8" s="49" t="s">
         <v>17</v>
       </c>
       <c r="I8" s="25"/>
@@ -1342,18 +1447,18 @@
       <c r="AA8" t="s">
         <v>21</v>
       </c>
-      <c r="AB8" s="36" t="s">
-        <v>53</v>
-      </c>
-      <c r="AC8" s="36"/>
-      <c r="AD8" s="36" t="s">
-        <v>53</v>
-      </c>
-      <c r="AE8" s="36"/>
-      <c r="AF8" s="36" t="s">
-        <v>56</v>
-      </c>
-      <c r="AG8" s="36"/>
+      <c r="AB8" s="39" t="s">
+        <v>52</v>
+      </c>
+      <c r="AC8" s="39"/>
+      <c r="AD8" s="39" t="s">
+        <v>52</v>
+      </c>
+      <c r="AE8" s="39"/>
+      <c r="AF8" s="39" t="s">
+        <v>55</v>
+      </c>
+      <c r="AG8" s="39"/>
     </row>
     <row r="9" spans="1:33">
       <c r="A9" s="1"/>
@@ -1363,7 +1468,7 @@
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
-      <c r="H9" s="33"/>
+      <c r="H9" s="50"/>
       <c r="I9" s="25"/>
       <c r="J9" s="20">
         <v>0</v>
@@ -1416,22 +1521,22 @@
       <c r="AA9" t="s">
         <v>27</v>
       </c>
-      <c r="AB9" s="42" t="s">
+      <c r="AB9" s="32" t="s">
+        <v>43</v>
+      </c>
+      <c r="AC9" s="32" t="s">
         <v>44</v>
       </c>
-      <c r="AC9" s="42" t="s">
+      <c r="AD9" s="33" t="s">
         <v>45</v>
       </c>
-      <c r="AD9" s="43" t="s">
-        <v>46</v>
-      </c>
-      <c r="AE9" s="44" t="s">
-        <v>56</v>
-      </c>
-      <c r="AF9" s="45" t="s">
-        <v>43</v>
-      </c>
-      <c r="AG9" s="45"/>
+      <c r="AE9" s="34" t="s">
+        <v>55</v>
+      </c>
+      <c r="AF9" s="40" t="s">
+        <v>42</v>
+      </c>
+      <c r="AG9" s="40"/>
     </row>
     <row r="10" spans="1:33">
       <c r="A10" s="1"/>
@@ -1504,35 +1609,35 @@
       <c r="G11" s="1"/>
       <c r="H11" s="4"/>
       <c r="I11" s="5"/>
-      <c r="J11" s="29" t="s">
+      <c r="J11" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="K11" s="30"/>
-      <c r="L11" s="30"/>
+      <c r="K11" s="42"/>
+      <c r="L11" s="42"/>
       <c r="M11" s="6">
         <v>0</v>
       </c>
-      <c r="N11" s="29" t="s">
+      <c r="N11" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="O11" s="30"/>
-      <c r="P11" s="30"/>
+      <c r="O11" s="42"/>
+      <c r="P11" s="42"/>
       <c r="Q11" s="6">
         <v>0</v>
       </c>
-      <c r="R11" s="29" t="s">
+      <c r="R11" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="S11" s="30"/>
-      <c r="T11" s="30"/>
+      <c r="S11" s="42"/>
+      <c r="T11" s="42"/>
       <c r="U11" s="6">
         <v>0</v>
       </c>
-      <c r="V11" s="29" t="s">
+      <c r="V11" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="W11" s="30"/>
-      <c r="X11" s="30"/>
+      <c r="W11" s="42"/>
+      <c r="X11" s="42"/>
       <c r="Y11" s="6">
         <v>0</v>
       </c>
@@ -1561,26 +1666,26 @@
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
-      <c r="H13" s="31" t="s">
+      <c r="H13" s="48" t="s">
         <v>12</v>
       </c>
-      <c r="I13" s="31"/>
-      <c r="J13" s="31"/>
-      <c r="K13" s="31"/>
-      <c r="L13" s="31"/>
-      <c r="M13" s="31"/>
-      <c r="N13" s="31"/>
-      <c r="O13" s="31"/>
-      <c r="P13" s="31"/>
-      <c r="Q13" s="31"/>
-      <c r="R13" s="31"/>
-      <c r="S13" s="31"/>
-      <c r="T13" s="31"/>
-      <c r="U13" s="31"/>
-      <c r="V13" s="31"/>
-      <c r="W13" s="31"/>
-      <c r="X13" s="31"/>
-      <c r="Y13" s="31"/>
+      <c r="I13" s="48"/>
+      <c r="J13" s="48"/>
+      <c r="K13" s="48"/>
+      <c r="L13" s="48"/>
+      <c r="M13" s="48"/>
+      <c r="N13" s="48"/>
+      <c r="O13" s="48"/>
+      <c r="P13" s="48"/>
+      <c r="Q13" s="48"/>
+      <c r="R13" s="48"/>
+      <c r="S13" s="48"/>
+      <c r="T13" s="48"/>
+      <c r="U13" s="48"/>
+      <c r="V13" s="48"/>
+      <c r="W13" s="48"/>
+      <c r="X13" s="48"/>
+      <c r="Y13" s="48"/>
     </row>
     <row r="14" spans="1:33">
       <c r="A14" s="1"/>
@@ -1590,7 +1695,7 @@
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
-      <c r="H14" s="32" t="s">
+      <c r="H14" s="49" t="s">
         <v>18</v>
       </c>
       <c r="I14" s="25"/>
@@ -1645,18 +1750,18 @@
       <c r="AA14" t="s">
         <v>21</v>
       </c>
-      <c r="AB14" s="36" t="s">
-        <v>54</v>
-      </c>
-      <c r="AC14" s="36"/>
-      <c r="AD14" s="36" t="s">
+      <c r="AB14" s="39" t="s">
+        <v>53</v>
+      </c>
+      <c r="AC14" s="39"/>
+      <c r="AD14" s="39" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE14" s="39"/>
+      <c r="AF14" s="47" t="s">
         <v>57</v>
       </c>
-      <c r="AE14" s="36"/>
-      <c r="AF14" s="47" t="s">
-        <v>58</v>
-      </c>
-      <c r="AG14" s="36"/>
+      <c r="AG14" s="39"/>
     </row>
     <row r="15" spans="1:33">
       <c r="C15" s="1"/>
@@ -1664,7 +1769,7 @@
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
-      <c r="H15" s="33"/>
+      <c r="H15" s="50"/>
       <c r="I15" s="25"/>
       <c r="J15" s="20">
         <v>1</v>
@@ -1717,22 +1822,22 @@
       <c r="AA15" t="s">
         <v>27</v>
       </c>
-      <c r="AB15" s="46" t="s">
+      <c r="AB15" s="36" t="s">
+        <v>46</v>
+      </c>
+      <c r="AC15" s="36" t="s">
         <v>47</v>
       </c>
-      <c r="AC15" s="46" t="s">
+      <c r="AD15" s="33" t="s">
         <v>48</v>
       </c>
-      <c r="AD15" s="43" t="s">
-        <v>49</v>
-      </c>
-      <c r="AE15" s="43" t="s">
-        <v>58</v>
-      </c>
-      <c r="AF15" s="45" t="s">
-        <v>43</v>
-      </c>
-      <c r="AG15" s="45"/>
+      <c r="AE15" s="33" t="s">
+        <v>57</v>
+      </c>
+      <c r="AF15" s="40" t="s">
+        <v>42</v>
+      </c>
+      <c r="AG15" s="40"/>
     </row>
     <row r="16" spans="1:33">
       <c r="C16" s="1"/>
@@ -1796,42 +1901,42 @@
       </c>
     </row>
     <row r="17" spans="1:33">
-      <c r="C17" s="48"/>
+      <c r="C17" s="37"/>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
       <c r="H17" s="4"/>
       <c r="I17" s="5"/>
-      <c r="J17" s="29" t="s">
+      <c r="J17" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="K17" s="30"/>
-      <c r="L17" s="30"/>
+      <c r="K17" s="42"/>
+      <c r="L17" s="42"/>
       <c r="M17" s="6">
         <v>1</v>
       </c>
-      <c r="N17" s="29" t="s">
+      <c r="N17" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="O17" s="30"/>
-      <c r="P17" s="30"/>
+      <c r="O17" s="42"/>
+      <c r="P17" s="42"/>
       <c r="Q17" s="6">
         <v>1</v>
       </c>
-      <c r="R17" s="29" t="s">
+      <c r="R17" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="S17" s="30"/>
-      <c r="T17" s="30"/>
+      <c r="S17" s="42"/>
+      <c r="T17" s="42"/>
       <c r="U17" s="6">
         <v>0</v>
       </c>
-      <c r="V17" s="29" t="s">
+      <c r="V17" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="W17" s="30"/>
-      <c r="X17" s="30"/>
+      <c r="W17" s="42"/>
+      <c r="X17" s="42"/>
       <c r="Y17" s="6">
         <v>0</v>
       </c>
@@ -1858,26 +1963,26 @@
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
-      <c r="H19" s="31" t="s">
+      <c r="H19" s="48" t="s">
         <v>15</v>
       </c>
-      <c r="I19" s="31"/>
-      <c r="J19" s="31"/>
-      <c r="K19" s="31"/>
-      <c r="L19" s="31"/>
-      <c r="M19" s="31"/>
-      <c r="N19" s="31"/>
-      <c r="O19" s="31"/>
-      <c r="P19" s="31"/>
-      <c r="Q19" s="31"/>
-      <c r="R19" s="31"/>
-      <c r="S19" s="31"/>
-      <c r="T19" s="31"/>
-      <c r="U19" s="31"/>
-      <c r="V19" s="31"/>
-      <c r="W19" s="31"/>
-      <c r="X19" s="31"/>
-      <c r="Y19" s="31"/>
+      <c r="I19" s="48"/>
+      <c r="J19" s="48"/>
+      <c r="K19" s="48"/>
+      <c r="L19" s="48"/>
+      <c r="M19" s="48"/>
+      <c r="N19" s="48"/>
+      <c r="O19" s="48"/>
+      <c r="P19" s="48"/>
+      <c r="Q19" s="48"/>
+      <c r="R19" s="48"/>
+      <c r="S19" s="48"/>
+      <c r="T19" s="48"/>
+      <c r="U19" s="48"/>
+      <c r="V19" s="48"/>
+      <c r="W19" s="48"/>
+      <c r="X19" s="48"/>
+      <c r="Y19" s="48"/>
     </row>
     <row r="20" spans="1:33">
       <c r="A20" s="1"/>
@@ -1887,7 +1992,7 @@
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
-      <c r="H20" s="32" t="s">
+      <c r="H20" s="49" t="s">
         <v>19</v>
       </c>
       <c r="I20" s="25"/>
@@ -1942,21 +2047,21 @@
       <c r="AA20" t="s">
         <v>21</v>
       </c>
-      <c r="AB20" s="36" t="s">
-        <v>55</v>
-      </c>
-      <c r="AC20" s="36"/>
-      <c r="AD20" s="36" t="s">
-        <v>55</v>
-      </c>
-      <c r="AE20" s="36"/>
-      <c r="AF20" s="36">
+      <c r="AB20" s="39" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC20" s="39"/>
+      <c r="AD20" s="39" t="s">
+        <v>54</v>
+      </c>
+      <c r="AE20" s="39"/>
+      <c r="AF20" s="39">
         <v>10</v>
       </c>
-      <c r="AG20" s="36"/>
+      <c r="AG20" s="39"/>
     </row>
     <row r="21" spans="1:33">
-      <c r="H21" s="33"/>
+      <c r="H21" s="50"/>
       <c r="I21" s="25"/>
       <c r="J21" s="20">
         <v>0</v>
@@ -2009,22 +2114,22 @@
       <c r="AA21" t="s">
         <v>27</v>
       </c>
-      <c r="AB21" s="46" t="s">
+      <c r="AB21" s="36" t="s">
+        <v>49</v>
+      </c>
+      <c r="AC21" s="36" t="s">
         <v>50</v>
       </c>
-      <c r="AC21" s="46" t="s">
+      <c r="AD21" s="33" t="s">
         <v>51</v>
       </c>
-      <c r="AD21" s="43" t="s">
-        <v>52</v>
-      </c>
-      <c r="AE21" s="43">
+      <c r="AE21" s="33">
         <v>10</v>
       </c>
-      <c r="AF21" s="45" t="s">
-        <v>43</v>
-      </c>
-      <c r="AG21" s="45"/>
+      <c r="AF21" s="40" t="s">
+        <v>42</v>
+      </c>
+      <c r="AG21" s="40"/>
     </row>
     <row r="22" spans="1:33">
       <c r="H22" s="7" t="s">
@@ -2083,92 +2188,92 @@
     <row r="23" spans="1:33">
       <c r="H23" s="4"/>
       <c r="I23" s="5"/>
-      <c r="J23" s="29" t="s">
+      <c r="J23" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="K23" s="30"/>
-      <c r="L23" s="30"/>
+      <c r="K23" s="42"/>
+      <c r="L23" s="42"/>
       <c r="M23" s="6">
         <v>0</v>
       </c>
-      <c r="N23" s="29" t="s">
+      <c r="N23" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="O23" s="30"/>
-      <c r="P23" s="30"/>
+      <c r="O23" s="42"/>
+      <c r="P23" s="42"/>
       <c r="Q23" s="6">
         <v>1</v>
       </c>
-      <c r="R23" s="29" t="s">
+      <c r="R23" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="S23" s="30"/>
-      <c r="T23" s="30"/>
+      <c r="S23" s="42"/>
+      <c r="T23" s="42"/>
       <c r="U23" s="6">
         <v>0</v>
       </c>
-      <c r="V23" s="29" t="s">
+      <c r="V23" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="W23" s="30"/>
-      <c r="X23" s="30"/>
+      <c r="W23" s="42"/>
+      <c r="X23" s="42"/>
       <c r="Y23" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:33">
       <c r="D26" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="E26" s="34" t="s">
-        <v>73</v>
-      </c>
-      <c r="F26" s="34"/>
+        <v>58</v>
+      </c>
+      <c r="E26" s="43" t="s">
+        <v>72</v>
+      </c>
+      <c r="F26" s="43"/>
       <c r="G26" s="1"/>
-      <c r="H26" s="31" t="s">
-        <v>61</v>
-      </c>
-      <c r="I26" s="31"/>
-      <c r="J26" s="31"/>
-      <c r="K26" s="31"/>
-      <c r="L26" s="31"/>
-      <c r="M26" s="31"/>
-      <c r="N26" s="31"/>
-      <c r="O26" s="31"/>
-      <c r="P26" s="31"/>
-      <c r="Q26" s="31"/>
-      <c r="R26" s="31"/>
-      <c r="S26" s="31"/>
-      <c r="T26" s="31"/>
-      <c r="U26" s="31"/>
-      <c r="V26" s="31"/>
-      <c r="W26" s="31"/>
-      <c r="X26" s="31"/>
-      <c r="Y26" s="31"/>
-      <c r="AB26" s="36" t="s">
+      <c r="H26" s="48" t="s">
+        <v>60</v>
+      </c>
+      <c r="I26" s="48"/>
+      <c r="J26" s="48"/>
+      <c r="K26" s="48"/>
+      <c r="L26" s="48"/>
+      <c r="M26" s="48"/>
+      <c r="N26" s="48"/>
+      <c r="O26" s="48"/>
+      <c r="P26" s="48"/>
+      <c r="Q26" s="48"/>
+      <c r="R26" s="48"/>
+      <c r="S26" s="48"/>
+      <c r="T26" s="48"/>
+      <c r="U26" s="48"/>
+      <c r="V26" s="48"/>
+      <c r="W26" s="48"/>
+      <c r="X26" s="48"/>
+      <c r="Y26" s="48"/>
+      <c r="AB26" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="AC26" s="36"/>
-      <c r="AD26" s="36" t="s">
+      <c r="AC26" s="39"/>
+      <c r="AD26" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="AE26" s="36"/>
-      <c r="AF26" s="36" t="s">
+      <c r="AE26" s="39"/>
+      <c r="AF26" s="39" t="s">
         <v>25</v>
       </c>
-      <c r="AG26" s="36"/>
+      <c r="AG26" s="39"/>
     </row>
     <row r="27" spans="1:33">
       <c r="D27" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E27" s="44" t="s">
+        <v>73</v>
+      </c>
+      <c r="F27" s="44"/>
+      <c r="G27" s="1"/>
+      <c r="H27" s="45" t="s">
         <v>62</v>
-      </c>
-      <c r="E27" s="35" t="s">
-        <v>74</v>
-      </c>
-      <c r="F27" s="35"/>
-      <c r="G27" s="1"/>
-      <c r="H27" s="37" t="s">
-        <v>63</v>
       </c>
       <c r="I27" s="25"/>
       <c r="J27" s="8">
@@ -2222,29 +2327,29 @@
       <c r="AA27" t="s">
         <v>21</v>
       </c>
-      <c r="AB27" s="36" t="s">
-        <v>78</v>
-      </c>
-      <c r="AC27" s="36"/>
-      <c r="AD27" s="36" t="s">
+      <c r="AB27" s="39" t="s">
+        <v>77</v>
+      </c>
+      <c r="AC27" s="39"/>
+      <c r="AD27" s="39" t="s">
+        <v>79</v>
+      </c>
+      <c r="AE27" s="39"/>
+      <c r="AF27" s="47" t="s">
         <v>80</v>
       </c>
-      <c r="AE27" s="36"/>
-      <c r="AF27" s="47" t="s">
-        <v>81</v>
-      </c>
-      <c r="AG27" s="36"/>
+      <c r="AG27" s="39"/>
     </row>
     <row r="28" spans="1:33">
       <c r="D28" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="E28" s="34" t="s">
-        <v>75</v>
-      </c>
-      <c r="F28" s="34"/>
+        <v>59</v>
+      </c>
+      <c r="E28" s="43" t="s">
+        <v>74</v>
+      </c>
+      <c r="F28" s="43"/>
       <c r="G28" s="1"/>
-      <c r="H28" s="38"/>
+      <c r="H28" s="46"/>
       <c r="I28" s="25"/>
       <c r="J28" s="20">
         <v>1</v>
@@ -2297,31 +2402,31 @@
       <c r="AA28" t="s">
         <v>27</v>
       </c>
-      <c r="AB28" s="42" t="s">
-        <v>64</v>
-      </c>
-      <c r="AC28" s="42" t="s">
-        <v>83</v>
-      </c>
-      <c r="AD28" s="43" t="s">
-        <v>84</v>
-      </c>
-      <c r="AE28" s="43" t="s">
-        <v>81</v>
-      </c>
-      <c r="AF28" s="45" t="s">
-        <v>43</v>
-      </c>
-      <c r="AG28" s="45"/>
+      <c r="AB28" s="32" t="s">
+        <v>63</v>
+      </c>
+      <c r="AC28" s="38" t="s">
+        <v>113</v>
+      </c>
+      <c r="AD28" s="33" t="s">
+        <v>82</v>
+      </c>
+      <c r="AE28" s="33" t="s">
+        <v>80</v>
+      </c>
+      <c r="AF28" s="40" t="s">
+        <v>42</v>
+      </c>
+      <c r="AG28" s="40"/>
     </row>
     <row r="29" spans="1:33">
       <c r="D29" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="E29" s="34" t="s">
-        <v>76</v>
-      </c>
-      <c r="F29" s="34"/>
+        <v>64</v>
+      </c>
+      <c r="E29" s="43" t="s">
+        <v>75</v>
+      </c>
+      <c r="F29" s="43"/>
       <c r="G29" s="1"/>
       <c r="H29" s="7" t="s">
         <v>7</v>
@@ -2383,35 +2488,35 @@
       <c r="G30" s="1"/>
       <c r="H30" s="4"/>
       <c r="I30" s="5"/>
-      <c r="J30" s="29" t="s">
+      <c r="J30" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="K30" s="30"/>
-      <c r="L30" s="30"/>
+      <c r="K30" s="42"/>
+      <c r="L30" s="42"/>
       <c r="M30" s="6">
         <v>1</v>
       </c>
-      <c r="N30" s="29" t="s">
+      <c r="N30" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="O30" s="30"/>
-      <c r="P30" s="30"/>
+      <c r="O30" s="42"/>
+      <c r="P30" s="42"/>
       <c r="Q30" s="6">
         <v>0</v>
       </c>
-      <c r="R30" s="29" t="s">
+      <c r="R30" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="S30" s="30"/>
-      <c r="T30" s="30"/>
+      <c r="S30" s="42"/>
+      <c r="T30" s="42"/>
       <c r="U30" s="6">
         <v>0</v>
       </c>
-      <c r="V30" s="29" t="s">
+      <c r="V30" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="W30" s="30"/>
-      <c r="X30" s="30"/>
+      <c r="W30" s="42"/>
+      <c r="X30" s="42"/>
       <c r="Y30" s="6">
         <v>0</v>
       </c>
@@ -2434,34 +2539,34 @@
       <c r="E32" s="1"/>
       <c r="F32" s="1"/>
       <c r="G32" s="1"/>
-      <c r="H32" s="31" t="s">
-        <v>66</v>
-      </c>
-      <c r="I32" s="31"/>
-      <c r="J32" s="31"/>
-      <c r="K32" s="31"/>
-      <c r="L32" s="31"/>
-      <c r="M32" s="31"/>
-      <c r="N32" s="31"/>
-      <c r="O32" s="31"/>
-      <c r="P32" s="31"/>
-      <c r="Q32" s="31"/>
-      <c r="R32" s="31"/>
-      <c r="S32" s="31"/>
-      <c r="T32" s="31"/>
-      <c r="U32" s="31"/>
-      <c r="V32" s="31"/>
-      <c r="W32" s="31"/>
-      <c r="X32" s="31"/>
-      <c r="Y32" s="31"/>
+      <c r="H32" s="48" t="s">
+        <v>65</v>
+      </c>
+      <c r="I32" s="48"/>
+      <c r="J32" s="48"/>
+      <c r="K32" s="48"/>
+      <c r="L32" s="48"/>
+      <c r="M32" s="48"/>
+      <c r="N32" s="48"/>
+      <c r="O32" s="48"/>
+      <c r="P32" s="48"/>
+      <c r="Q32" s="48"/>
+      <c r="R32" s="48"/>
+      <c r="S32" s="48"/>
+      <c r="T32" s="48"/>
+      <c r="U32" s="48"/>
+      <c r="V32" s="48"/>
+      <c r="W32" s="48"/>
+      <c r="X32" s="48"/>
+      <c r="Y32" s="48"/>
     </row>
     <row r="33" spans="4:33">
       <c r="D33" s="1"/>
       <c r="E33" s="1"/>
       <c r="F33" s="1"/>
       <c r="G33" s="1"/>
-      <c r="H33" s="32" t="s">
-        <v>67</v>
+      <c r="H33" s="49" t="s">
+        <v>66</v>
       </c>
       <c r="I33" s="25"/>
       <c r="J33" s="8">
@@ -2512,21 +2617,21 @@
       <c r="Y33" s="19">
         <v>1</v>
       </c>
-      <c r="AB33" s="36" t="s">
-        <v>77</v>
-      </c>
-      <c r="AC33" s="36"/>
-      <c r="AD33" s="36"/>
-      <c r="AE33" s="36"/>
-      <c r="AF33" s="36"/>
-      <c r="AG33" s="36"/>
+      <c r="AB33" s="39" t="s">
+        <v>76</v>
+      </c>
+      <c r="AC33" s="39"/>
+      <c r="AD33" s="39"/>
+      <c r="AE33" s="39"/>
+      <c r="AF33" s="39"/>
+      <c r="AG33" s="39"/>
     </row>
     <row r="34" spans="4:33">
       <c r="D34" s="1"/>
       <c r="E34" s="1"/>
       <c r="F34" s="1"/>
       <c r="G34" s="1"/>
-      <c r="H34" s="33"/>
+      <c r="H34" s="50"/>
       <c r="I34" s="25"/>
       <c r="J34" s="20">
         <v>0</v>
@@ -2576,12 +2681,12 @@
       <c r="Y34" s="23">
         <v>0</v>
       </c>
-      <c r="AB34" s="42"/>
-      <c r="AC34" s="42"/>
-      <c r="AD34" s="43"/>
-      <c r="AE34" s="44"/>
-      <c r="AF34" s="45"/>
-      <c r="AG34" s="45"/>
+      <c r="AB34" s="32"/>
+      <c r="AC34" s="32"/>
+      <c r="AD34" s="33"/>
+      <c r="AE34" s="34"/>
+      <c r="AF34" s="40"/>
+      <c r="AG34" s="40"/>
     </row>
     <row r="35" spans="4:33">
       <c r="D35" s="1"/>
@@ -2648,35 +2753,35 @@
       <c r="G36" s="1"/>
       <c r="H36" s="4"/>
       <c r="I36" s="5"/>
-      <c r="J36" s="29" t="s">
+      <c r="J36" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="K36" s="30"/>
-      <c r="L36" s="30"/>
+      <c r="K36" s="42"/>
+      <c r="L36" s="42"/>
       <c r="M36" s="6">
         <v>1</v>
       </c>
-      <c r="N36" s="29" t="s">
+      <c r="N36" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="O36" s="30"/>
-      <c r="P36" s="30"/>
+      <c r="O36" s="42"/>
+      <c r="P36" s="42"/>
       <c r="Q36" s="6">
         <v>0</v>
       </c>
-      <c r="R36" s="29" t="s">
+      <c r="R36" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="S36" s="30"/>
-      <c r="T36" s="30"/>
+      <c r="S36" s="42"/>
+      <c r="T36" s="42"/>
       <c r="U36" s="6">
         <v>1</v>
       </c>
-      <c r="V36" s="29" t="s">
+      <c r="V36" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="W36" s="30"/>
-      <c r="X36" s="30"/>
+      <c r="W36" s="42"/>
+      <c r="X36" s="42"/>
       <c r="Y36" s="6">
         <v>0</v>
       </c>
@@ -2699,34 +2804,34 @@
       <c r="E38" s="1"/>
       <c r="F38" s="1"/>
       <c r="G38" s="1"/>
-      <c r="H38" s="31" t="s">
-        <v>68</v>
-      </c>
-      <c r="I38" s="31"/>
-      <c r="J38" s="31"/>
-      <c r="K38" s="31"/>
-      <c r="L38" s="31"/>
-      <c r="M38" s="31"/>
-      <c r="N38" s="31"/>
-      <c r="O38" s="31"/>
-      <c r="P38" s="31"/>
-      <c r="Q38" s="31"/>
-      <c r="R38" s="31"/>
-      <c r="S38" s="31"/>
-      <c r="T38" s="31"/>
-      <c r="U38" s="31"/>
-      <c r="V38" s="31"/>
-      <c r="W38" s="31"/>
-      <c r="X38" s="31"/>
-      <c r="Y38" s="31"/>
+      <c r="H38" s="48" t="s">
+        <v>67</v>
+      </c>
+      <c r="I38" s="48"/>
+      <c r="J38" s="48"/>
+      <c r="K38" s="48"/>
+      <c r="L38" s="48"/>
+      <c r="M38" s="48"/>
+      <c r="N38" s="48"/>
+      <c r="O38" s="48"/>
+      <c r="P38" s="48"/>
+      <c r="Q38" s="48"/>
+      <c r="R38" s="48"/>
+      <c r="S38" s="48"/>
+      <c r="T38" s="48"/>
+      <c r="U38" s="48"/>
+      <c r="V38" s="48"/>
+      <c r="W38" s="48"/>
+      <c r="X38" s="48"/>
+      <c r="Y38" s="48"/>
     </row>
     <row r="39" spans="4:33">
       <c r="D39" s="1"/>
       <c r="E39" s="1"/>
       <c r="F39" s="1"/>
       <c r="G39" s="1"/>
-      <c r="H39" s="32" t="s">
-        <v>69</v>
+      <c r="H39" s="49" t="s">
+        <v>68</v>
       </c>
       <c r="I39" s="25"/>
       <c r="J39" s="8">
@@ -2777,21 +2882,21 @@
       <c r="Y39" s="19">
         <v>1</v>
       </c>
-      <c r="AB39" s="36" t="s">
-        <v>77</v>
-      </c>
-      <c r="AC39" s="36"/>
-      <c r="AD39" s="36"/>
-      <c r="AE39" s="36"/>
+      <c r="AB39" s="39" t="s">
+        <v>76</v>
+      </c>
+      <c r="AC39" s="39"/>
+      <c r="AD39" s="39"/>
+      <c r="AE39" s="39"/>
       <c r="AF39" s="47"/>
-      <c r="AG39" s="36"/>
+      <c r="AG39" s="39"/>
     </row>
     <row r="40" spans="4:33">
       <c r="D40" s="1"/>
       <c r="E40" s="1"/>
       <c r="F40" s="1"/>
       <c r="G40" s="1"/>
-      <c r="H40" s="33"/>
+      <c r="H40" s="50"/>
       <c r="I40" s="25"/>
       <c r="J40" s="20">
         <v>1</v>
@@ -2841,12 +2946,12 @@
       <c r="Y40" s="23">
         <v>0</v>
       </c>
-      <c r="AB40" s="46"/>
-      <c r="AC40" s="46"/>
-      <c r="AD40" s="43"/>
-      <c r="AE40" s="43"/>
-      <c r="AF40" s="45"/>
-      <c r="AG40" s="45"/>
+      <c r="AB40" s="36"/>
+      <c r="AC40" s="36"/>
+      <c r="AD40" s="33"/>
+      <c r="AE40" s="33"/>
+      <c r="AF40" s="40"/>
+      <c r="AG40" s="40"/>
     </row>
     <row r="41" spans="4:33">
       <c r="D41" s="1"/>
@@ -2915,35 +3020,35 @@
       <c r="G42" s="1"/>
       <c r="H42" s="4"/>
       <c r="I42" s="5"/>
-      <c r="J42" s="29" t="s">
+      <c r="J42" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="K42" s="30"/>
-      <c r="L42" s="30"/>
+      <c r="K42" s="42"/>
+      <c r="L42" s="42"/>
       <c r="M42" s="6">
         <v>0</v>
       </c>
-      <c r="N42" s="29" t="s">
+      <c r="N42" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="O42" s="30"/>
-      <c r="P42" s="30"/>
+      <c r="O42" s="42"/>
+      <c r="P42" s="42"/>
       <c r="Q42" s="6">
         <v>1</v>
       </c>
-      <c r="R42" s="29" t="s">
+      <c r="R42" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="S42" s="30"/>
-      <c r="T42" s="30"/>
+      <c r="S42" s="42"/>
+      <c r="T42" s="42"/>
       <c r="U42" s="6">
         <v>1</v>
       </c>
-      <c r="V42" s="29" t="s">
+      <c r="V42" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="W42" s="30"/>
-      <c r="X42" s="30"/>
+      <c r="W42" s="42"/>
+      <c r="X42" s="42"/>
       <c r="Y42" s="6">
         <v>0</v>
       </c>
@@ -2966,34 +3071,34 @@
       <c r="E44" s="1"/>
       <c r="F44" s="1"/>
       <c r="G44" s="1"/>
-      <c r="H44" s="31" t="s">
-        <v>70</v>
-      </c>
-      <c r="I44" s="31"/>
-      <c r="J44" s="31"/>
-      <c r="K44" s="31"/>
-      <c r="L44" s="31"/>
-      <c r="M44" s="31"/>
-      <c r="N44" s="31"/>
-      <c r="O44" s="31"/>
-      <c r="P44" s="31"/>
-      <c r="Q44" s="31"/>
-      <c r="R44" s="31"/>
-      <c r="S44" s="31"/>
-      <c r="T44" s="31"/>
-      <c r="U44" s="31"/>
-      <c r="V44" s="31"/>
-      <c r="W44" s="31"/>
-      <c r="X44" s="31"/>
-      <c r="Y44" s="31"/>
+      <c r="H44" s="48" t="s">
+        <v>69</v>
+      </c>
+      <c r="I44" s="48"/>
+      <c r="J44" s="48"/>
+      <c r="K44" s="48"/>
+      <c r="L44" s="48"/>
+      <c r="M44" s="48"/>
+      <c r="N44" s="48"/>
+      <c r="O44" s="48"/>
+      <c r="P44" s="48"/>
+      <c r="Q44" s="48"/>
+      <c r="R44" s="48"/>
+      <c r="S44" s="48"/>
+      <c r="T44" s="48"/>
+      <c r="U44" s="48"/>
+      <c r="V44" s="48"/>
+      <c r="W44" s="48"/>
+      <c r="X44" s="48"/>
+      <c r="Y44" s="48"/>
     </row>
     <row r="45" spans="4:33">
       <c r="D45" s="1"/>
       <c r="E45" s="1"/>
       <c r="F45" s="1"/>
       <c r="G45" s="1"/>
-      <c r="H45" s="32" t="s">
-        <v>71</v>
+      <c r="H45" s="49" t="s">
+        <v>70</v>
       </c>
       <c r="I45" s="25"/>
       <c r="J45" s="8">
@@ -3047,21 +3152,21 @@
       <c r="AA45" t="s">
         <v>21</v>
       </c>
-      <c r="AB45" s="36" t="s">
-        <v>79</v>
-      </c>
-      <c r="AC45" s="36"/>
-      <c r="AD45" s="36" t="s">
-        <v>79</v>
-      </c>
-      <c r="AE45" s="36"/>
-      <c r="AF45" s="36" t="s">
-        <v>82</v>
-      </c>
-      <c r="AG45" s="36"/>
+      <c r="AB45" s="39" t="s">
+        <v>78</v>
+      </c>
+      <c r="AC45" s="39"/>
+      <c r="AD45" s="39" t="s">
+        <v>78</v>
+      </c>
+      <c r="AE45" s="39"/>
+      <c r="AF45" s="39" t="s">
+        <v>81</v>
+      </c>
+      <c r="AG45" s="39"/>
     </row>
     <row r="46" spans="4:33">
-      <c r="H46" s="33"/>
+      <c r="H46" s="50"/>
       <c r="I46" s="25"/>
       <c r="J46" s="20">
         <v>0</v>
@@ -3114,22 +3219,22 @@
       <c r="AA46" t="s">
         <v>27</v>
       </c>
-      <c r="AB46" s="46" t="s">
-        <v>72</v>
-      </c>
-      <c r="AC46" s="46" t="s">
-        <v>85</v>
-      </c>
-      <c r="AD46" s="43" t="s">
-        <v>86</v>
-      </c>
-      <c r="AE46" s="44" t="s">
-        <v>82</v>
-      </c>
-      <c r="AF46" s="45" t="s">
-        <v>43</v>
-      </c>
-      <c r="AG46" s="45"/>
+      <c r="AB46" s="36" t="s">
+        <v>71</v>
+      </c>
+      <c r="AC46" s="36" t="s">
+        <v>114</v>
+      </c>
+      <c r="AD46" s="33" t="s">
+        <v>115</v>
+      </c>
+      <c r="AE46" s="34" t="s">
+        <v>81</v>
+      </c>
+      <c r="AF46" s="40" t="s">
+        <v>42</v>
+      </c>
+      <c r="AG46" s="40"/>
     </row>
     <row r="47" spans="4:33">
       <c r="H47" s="7" t="s">
@@ -3190,111 +3295,1236 @@
     <row r="48" spans="4:33">
       <c r="H48" s="4"/>
       <c r="I48" s="5"/>
-      <c r="J48" s="29" t="s">
+      <c r="J48" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="K48" s="30"/>
-      <c r="L48" s="30"/>
+      <c r="K48" s="42"/>
+      <c r="L48" s="42"/>
       <c r="M48" s="6">
         <v>0</v>
       </c>
-      <c r="N48" s="29" t="s">
+      <c r="N48" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="O48" s="30"/>
-      <c r="P48" s="30"/>
+      <c r="O48" s="42"/>
+      <c r="P48" s="42"/>
       <c r="Q48" s="6">
         <v>1</v>
       </c>
-      <c r="R48" s="29" t="s">
+      <c r="R48" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="S48" s="30"/>
-      <c r="T48" s="30"/>
+      <c r="S48" s="42"/>
+      <c r="T48" s="42"/>
       <c r="U48" s="6">
         <v>0</v>
       </c>
-      <c r="V48" s="29" t="s">
+      <c r="V48" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="W48" s="30"/>
-      <c r="X48" s="30"/>
+      <c r="W48" s="42"/>
+      <c r="X48" s="42"/>
       <c r="Y48" s="6">
         <v>0</v>
       </c>
     </row>
+    <row r="51" spans="4:33">
+      <c r="D51" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E51" s="43" t="s">
+        <v>97</v>
+      </c>
+      <c r="F51" s="43"/>
+      <c r="G51" s="1"/>
+      <c r="H51" s="48" t="s">
+        <v>85</v>
+      </c>
+      <c r="I51" s="48"/>
+      <c r="J51" s="48"/>
+      <c r="K51" s="48"/>
+      <c r="L51" s="48"/>
+      <c r="M51" s="48"/>
+      <c r="N51" s="48"/>
+      <c r="O51" s="48"/>
+      <c r="P51" s="48"/>
+      <c r="Q51" s="48"/>
+      <c r="R51" s="48"/>
+      <c r="S51" s="48"/>
+      <c r="T51" s="48"/>
+      <c r="U51" s="48"/>
+      <c r="V51" s="48"/>
+      <c r="W51" s="48"/>
+      <c r="X51" s="48"/>
+      <c r="Y51" s="48"/>
+      <c r="AB51" s="39" t="s">
+        <v>23</v>
+      </c>
+      <c r="AC51" s="39"/>
+      <c r="AD51" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="AE51" s="39"/>
+      <c r="AF51" s="39" t="s">
+        <v>25</v>
+      </c>
+      <c r="AG51" s="39"/>
+    </row>
+    <row r="52" spans="4:33">
+      <c r="D52" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="E52" s="44" t="s">
+        <v>98</v>
+      </c>
+      <c r="F52" s="44"/>
+      <c r="G52" s="1"/>
+      <c r="H52" s="45" t="s">
+        <v>87</v>
+      </c>
+      <c r="I52" s="25"/>
+      <c r="J52" s="8">
+        <v>0</v>
+      </c>
+      <c r="K52" s="9">
+        <v>0</v>
+      </c>
+      <c r="L52" s="9">
+        <v>1</v>
+      </c>
+      <c r="M52" s="10">
+        <v>1</v>
+      </c>
+      <c r="N52" s="8">
+        <v>0</v>
+      </c>
+      <c r="O52" s="9">
+        <v>1</v>
+      </c>
+      <c r="P52" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q52" s="10">
+        <v>1</v>
+      </c>
+      <c r="R52" s="8">
+        <v>1</v>
+      </c>
+      <c r="S52" s="9">
+        <v>0</v>
+      </c>
+      <c r="T52" s="9">
+        <v>1</v>
+      </c>
+      <c r="U52" s="10">
+        <v>1</v>
+      </c>
+      <c r="V52" s="17">
+        <v>0</v>
+      </c>
+      <c r="W52" s="18">
+        <v>0</v>
+      </c>
+      <c r="X52" s="18">
+        <v>0</v>
+      </c>
+      <c r="Y52" s="19">
+        <v>1</v>
+      </c>
+      <c r="AA52" t="s">
+        <v>21</v>
+      </c>
+      <c r="AB52" s="39" t="s">
+        <v>102</v>
+      </c>
+      <c r="AC52" s="39"/>
+      <c r="AD52" s="39" t="s">
+        <v>106</v>
+      </c>
+      <c r="AE52" s="39"/>
+      <c r="AF52" s="47" t="s">
+        <v>107</v>
+      </c>
+      <c r="AG52" s="39"/>
+    </row>
+    <row r="53" spans="4:33">
+      <c r="D53" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="E53" s="43" t="s">
+        <v>99</v>
+      </c>
+      <c r="F53" s="43"/>
+      <c r="G53" s="1"/>
+      <c r="H53" s="46"/>
+      <c r="I53" s="25"/>
+      <c r="J53" s="20">
+        <v>1</v>
+      </c>
+      <c r="K53" s="21">
+        <v>0</v>
+      </c>
+      <c r="L53" s="21">
+        <v>1</v>
+      </c>
+      <c r="M53" s="22">
+        <v>1</v>
+      </c>
+      <c r="N53" s="20">
+        <v>1</v>
+      </c>
+      <c r="O53" s="27">
+        <v>0</v>
+      </c>
+      <c r="P53" s="27">
+        <v>1</v>
+      </c>
+      <c r="Q53" s="23">
+        <v>0</v>
+      </c>
+      <c r="R53" s="24">
+        <v>0</v>
+      </c>
+      <c r="S53" s="28">
+        <v>1</v>
+      </c>
+      <c r="T53" s="28">
+        <v>1</v>
+      </c>
+      <c r="U53" s="23">
+        <v>1</v>
+      </c>
+      <c r="V53" s="24">
+        <v>1</v>
+      </c>
+      <c r="W53" s="28">
+        <v>0</v>
+      </c>
+      <c r="X53" s="28">
+        <v>0</v>
+      </c>
+      <c r="Y53" s="23">
+        <v>0</v>
+      </c>
+      <c r="AA53" t="s">
+        <v>27</v>
+      </c>
+      <c r="AB53" s="35" t="s">
+        <v>88</v>
+      </c>
+      <c r="AC53" s="38" t="s">
+        <v>111</v>
+      </c>
+      <c r="AD53" s="33" t="s">
+        <v>112</v>
+      </c>
+      <c r="AE53" s="33" t="s">
+        <v>107</v>
+      </c>
+      <c r="AF53" s="40" t="s">
+        <v>42</v>
+      </c>
+      <c r="AG53" s="40"/>
+    </row>
+    <row r="54" spans="4:33">
+      <c r="D54" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="E54" s="43" t="s">
+        <v>100</v>
+      </c>
+      <c r="F54" s="43"/>
+      <c r="G54" s="1"/>
+      <c r="H54" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="I54" s="26"/>
+      <c r="J54" s="11">
+        <v>1</v>
+      </c>
+      <c r="K54" s="12">
+        <v>1</v>
+      </c>
+      <c r="L54" s="12">
+        <v>1</v>
+      </c>
+      <c r="M54" s="13">
+        <v>1</v>
+      </c>
+      <c r="N54" s="11">
+        <v>0</v>
+      </c>
+      <c r="O54" s="14">
+        <v>0</v>
+      </c>
+      <c r="P54" s="14">
+        <v>0</v>
+      </c>
+      <c r="Q54" s="15">
+        <v>0</v>
+      </c>
+      <c r="R54" s="16">
+        <v>0</v>
+      </c>
+      <c r="S54" s="14">
+        <v>0</v>
+      </c>
+      <c r="T54" s="14">
+        <v>1</v>
+      </c>
+      <c r="U54" s="15">
+        <v>0</v>
+      </c>
+      <c r="V54" s="16">
+        <v>1</v>
+      </c>
+      <c r="W54" s="14">
+        <v>0</v>
+      </c>
+      <c r="X54" s="14">
+        <v>0</v>
+      </c>
+      <c r="Y54" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="4:33">
+      <c r="D55" s="1"/>
+      <c r="E55" s="1"/>
+      <c r="F55" s="1"/>
+      <c r="G55" s="1"/>
+      <c r="H55" s="4"/>
+      <c r="I55" s="5"/>
+      <c r="J55" s="41" t="s">
+        <v>8</v>
+      </c>
+      <c r="K55" s="42"/>
+      <c r="L55" s="42"/>
+      <c r="M55" s="6">
+        <v>1</v>
+      </c>
+      <c r="N55" s="41" t="s">
+        <v>9</v>
+      </c>
+      <c r="O55" s="42"/>
+      <c r="P55" s="42"/>
+      <c r="Q55" s="6">
+        <v>0</v>
+      </c>
+      <c r="R55" s="41" t="s">
+        <v>11</v>
+      </c>
+      <c r="S55" s="42"/>
+      <c r="T55" s="42"/>
+      <c r="U55" s="6">
+        <v>0</v>
+      </c>
+      <c r="V55" s="41" t="s">
+        <v>10</v>
+      </c>
+      <c r="W55" s="42"/>
+      <c r="X55" s="42"/>
+      <c r="Y55" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="4:33">
+      <c r="D56" s="1"/>
+      <c r="E56" s="1"/>
+      <c r="F56" s="1"/>
+      <c r="G56" s="1"/>
+      <c r="H56" s="2"/>
+      <c r="I56" s="1"/>
+      <c r="J56" s="1"/>
+      <c r="K56" s="1"/>
+      <c r="L56" s="1"/>
+      <c r="M56" s="1"/>
+      <c r="N56" s="1"/>
+    </row>
+    <row r="57" spans="4:33">
+      <c r="D57" s="1"/>
+      <c r="E57" s="1"/>
+      <c r="F57" s="1"/>
+      <c r="G57" s="1"/>
+      <c r="H57" s="48" t="s">
+        <v>90</v>
+      </c>
+      <c r="I57" s="48"/>
+      <c r="J57" s="48"/>
+      <c r="K57" s="48"/>
+      <c r="L57" s="48"/>
+      <c r="M57" s="48"/>
+      <c r="N57" s="48"/>
+      <c r="O57" s="48"/>
+      <c r="P57" s="48"/>
+      <c r="Q57" s="48"/>
+      <c r="R57" s="48"/>
+      <c r="S57" s="48"/>
+      <c r="T57" s="48"/>
+      <c r="U57" s="48"/>
+      <c r="V57" s="48"/>
+      <c r="W57" s="48"/>
+      <c r="X57" s="48"/>
+      <c r="Y57" s="48"/>
+    </row>
+    <row r="58" spans="4:33">
+      <c r="D58" s="1"/>
+      <c r="E58" s="1"/>
+      <c r="F58" s="1"/>
+      <c r="G58" s="1"/>
+      <c r="H58" s="49" t="s">
+        <v>91</v>
+      </c>
+      <c r="I58" s="25"/>
+      <c r="J58" s="8">
+        <v>0</v>
+      </c>
+      <c r="K58" s="9">
+        <v>0</v>
+      </c>
+      <c r="L58" s="9">
+        <v>1</v>
+      </c>
+      <c r="M58" s="10">
+        <v>1</v>
+      </c>
+      <c r="N58" s="8">
+        <v>0</v>
+      </c>
+      <c r="O58" s="9">
+        <v>1</v>
+      </c>
+      <c r="P58" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q58" s="10">
+        <v>1</v>
+      </c>
+      <c r="R58" s="8">
+        <v>1</v>
+      </c>
+      <c r="S58" s="9">
+        <v>0</v>
+      </c>
+      <c r="T58" s="9">
+        <v>1</v>
+      </c>
+      <c r="U58" s="10">
+        <v>1</v>
+      </c>
+      <c r="V58" s="17">
+        <v>0</v>
+      </c>
+      <c r="W58" s="18">
+        <v>0</v>
+      </c>
+      <c r="X58" s="18">
+        <v>0</v>
+      </c>
+      <c r="Y58" s="19">
+        <v>1</v>
+      </c>
+      <c r="AB58" s="39" t="s">
+        <v>76</v>
+      </c>
+      <c r="AC58" s="39"/>
+      <c r="AD58" s="39"/>
+      <c r="AE58" s="39"/>
+      <c r="AF58" s="39"/>
+      <c r="AG58" s="39"/>
+    </row>
+    <row r="59" spans="4:33">
+      <c r="D59" s="1"/>
+      <c r="E59" s="1"/>
+      <c r="F59" s="1"/>
+      <c r="G59" s="1"/>
+      <c r="H59" s="50"/>
+      <c r="I59" s="25"/>
+      <c r="J59" s="20">
+        <v>0</v>
+      </c>
+      <c r="K59" s="21">
+        <v>1</v>
+      </c>
+      <c r="L59" s="21">
+        <v>0</v>
+      </c>
+      <c r="M59" s="22">
+        <v>0</v>
+      </c>
+      <c r="N59" s="20">
+        <v>0</v>
+      </c>
+      <c r="O59" s="27">
+        <v>1</v>
+      </c>
+      <c r="P59" s="27">
+        <v>0</v>
+      </c>
+      <c r="Q59" s="23">
+        <v>1</v>
+      </c>
+      <c r="R59" s="24">
+        <v>1</v>
+      </c>
+      <c r="S59" s="28">
+        <v>0</v>
+      </c>
+      <c r="T59" s="28">
+        <v>0</v>
+      </c>
+      <c r="U59" s="23">
+        <v>0</v>
+      </c>
+      <c r="V59" s="24">
+        <v>1</v>
+      </c>
+      <c r="W59" s="28">
+        <v>0</v>
+      </c>
+      <c r="X59" s="28">
+        <v>0</v>
+      </c>
+      <c r="Y59" s="23">
+        <v>0</v>
+      </c>
+      <c r="AB59" s="35"/>
+      <c r="AC59" s="35"/>
+      <c r="AD59" s="33"/>
+      <c r="AE59" s="34"/>
+      <c r="AF59" s="40"/>
+      <c r="AG59" s="40"/>
+    </row>
+    <row r="60" spans="4:33">
+      <c r="D60" s="1"/>
+      <c r="E60" s="1"/>
+      <c r="F60" s="1"/>
+      <c r="G60" s="1"/>
+      <c r="H60" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="I60" s="26"/>
+      <c r="J60" s="11">
+        <v>0</v>
+      </c>
+      <c r="K60" s="12">
+        <v>1</v>
+      </c>
+      <c r="L60" s="12">
+        <v>1</v>
+      </c>
+      <c r="M60" s="13">
+        <v>1</v>
+      </c>
+      <c r="N60" s="11">
+        <v>1</v>
+      </c>
+      <c r="O60" s="14">
+        <v>0</v>
+      </c>
+      <c r="P60" s="14">
+        <v>1</v>
+      </c>
+      <c r="Q60" s="15">
+        <v>1</v>
+      </c>
+      <c r="R60" s="16">
+        <v>0</v>
+      </c>
+      <c r="S60" s="14">
+        <v>0</v>
+      </c>
+      <c r="T60" s="14">
+        <v>1</v>
+      </c>
+      <c r="U60" s="15">
+        <v>1</v>
+      </c>
+      <c r="V60" s="16">
+        <v>1</v>
+      </c>
+      <c r="W60" s="14">
+        <v>0</v>
+      </c>
+      <c r="X60" s="14">
+        <v>0</v>
+      </c>
+      <c r="Y60" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="4:33">
+      <c r="D61" s="1"/>
+      <c r="E61" s="1"/>
+      <c r="F61" s="1"/>
+      <c r="G61" s="1"/>
+      <c r="H61" s="4"/>
+      <c r="I61" s="5"/>
+      <c r="J61" s="41" t="s">
+        <v>8</v>
+      </c>
+      <c r="K61" s="42"/>
+      <c r="L61" s="42"/>
+      <c r="M61" s="6">
+        <v>0</v>
+      </c>
+      <c r="N61" s="41" t="s">
+        <v>9</v>
+      </c>
+      <c r="O61" s="42"/>
+      <c r="P61" s="42"/>
+      <c r="Q61" s="6">
+        <v>0</v>
+      </c>
+      <c r="R61" s="41" t="s">
+        <v>11</v>
+      </c>
+      <c r="S61" s="42"/>
+      <c r="T61" s="42"/>
+      <c r="U61" s="6">
+        <v>0</v>
+      </c>
+      <c r="V61" s="41" t="s">
+        <v>10</v>
+      </c>
+      <c r="W61" s="42"/>
+      <c r="X61" s="42"/>
+      <c r="Y61" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="4:33">
+      <c r="D62" s="1"/>
+      <c r="E62" s="1"/>
+      <c r="F62" s="1"/>
+      <c r="G62" s="1"/>
+      <c r="H62" s="2"/>
+      <c r="I62" s="1"/>
+      <c r="J62" s="1"/>
+      <c r="K62" s="1"/>
+      <c r="L62" s="1"/>
+      <c r="M62" s="1"/>
+      <c r="N62" s="1"/>
+    </row>
+    <row r="63" spans="4:33">
+      <c r="D63" s="1"/>
+      <c r="E63" s="1"/>
+      <c r="F63" s="1"/>
+      <c r="G63" s="1"/>
+      <c r="H63" s="48" t="s">
+        <v>92</v>
+      </c>
+      <c r="I63" s="48"/>
+      <c r="J63" s="48"/>
+      <c r="K63" s="48"/>
+      <c r="L63" s="48"/>
+      <c r="M63" s="48"/>
+      <c r="N63" s="48"/>
+      <c r="O63" s="48"/>
+      <c r="P63" s="48"/>
+      <c r="Q63" s="48"/>
+      <c r="R63" s="48"/>
+      <c r="S63" s="48"/>
+      <c r="T63" s="48"/>
+      <c r="U63" s="48"/>
+      <c r="V63" s="48"/>
+      <c r="W63" s="48"/>
+      <c r="X63" s="48"/>
+      <c r="Y63" s="48"/>
+    </row>
+    <row r="64" spans="4:33">
+      <c r="D64" s="1"/>
+      <c r="E64" s="1"/>
+      <c r="F64" s="1"/>
+      <c r="G64" s="1"/>
+      <c r="H64" s="49" t="s">
+        <v>93</v>
+      </c>
+      <c r="I64" s="25"/>
+      <c r="J64" s="8">
+        <v>1</v>
+      </c>
+      <c r="K64" s="9">
+        <v>1</v>
+      </c>
+      <c r="L64" s="9">
+        <v>0</v>
+      </c>
+      <c r="M64" s="10">
+        <v>0</v>
+      </c>
+      <c r="N64" s="8">
+        <v>1</v>
+      </c>
+      <c r="O64" s="9">
+        <v>0</v>
+      </c>
+      <c r="P64" s="9">
+        <v>1</v>
+      </c>
+      <c r="Q64" s="10">
+        <v>0</v>
+      </c>
+      <c r="R64" s="8">
+        <v>0</v>
+      </c>
+      <c r="S64" s="9">
+        <v>1</v>
+      </c>
+      <c r="T64" s="9">
+        <v>0</v>
+      </c>
+      <c r="U64" s="10">
+        <v>0</v>
+      </c>
+      <c r="V64" s="17">
+        <v>1</v>
+      </c>
+      <c r="W64" s="18">
+        <v>1</v>
+      </c>
+      <c r="X64" s="18">
+        <v>1</v>
+      </c>
+      <c r="Y64" s="19">
+        <v>1</v>
+      </c>
+      <c r="AB64" s="39" t="s">
+        <v>23</v>
+      </c>
+      <c r="AC64" s="39"/>
+      <c r="AD64" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="AE64" s="39"/>
+      <c r="AF64" s="39" t="s">
+        <v>25</v>
+      </c>
+      <c r="AG64" s="39"/>
+    </row>
+    <row r="65" spans="4:33">
+      <c r="D65" s="1"/>
+      <c r="E65" s="1"/>
+      <c r="F65" s="1"/>
+      <c r="G65" s="1"/>
+      <c r="H65" s="50"/>
+      <c r="I65" s="25"/>
+      <c r="J65" s="20">
+        <v>1</v>
+      </c>
+      <c r="K65" s="21">
+        <v>0</v>
+      </c>
+      <c r="L65" s="21">
+        <v>1</v>
+      </c>
+      <c r="M65" s="22">
+        <v>1</v>
+      </c>
+      <c r="N65" s="20">
+        <v>1</v>
+      </c>
+      <c r="O65" s="27">
+        <v>0</v>
+      </c>
+      <c r="P65" s="27">
+        <v>1</v>
+      </c>
+      <c r="Q65" s="23">
+        <v>0</v>
+      </c>
+      <c r="R65" s="24">
+        <v>0</v>
+      </c>
+      <c r="S65" s="28">
+        <v>1</v>
+      </c>
+      <c r="T65" s="28">
+        <v>1</v>
+      </c>
+      <c r="U65" s="23">
+        <v>1</v>
+      </c>
+      <c r="V65" s="24">
+        <v>1</v>
+      </c>
+      <c r="W65" s="28">
+        <v>0</v>
+      </c>
+      <c r="X65" s="28">
+        <v>0</v>
+      </c>
+      <c r="Y65" s="23">
+        <v>0</v>
+      </c>
+      <c r="AA65" t="s">
+        <v>21</v>
+      </c>
+      <c r="AB65" s="39" t="s">
+        <v>104</v>
+      </c>
+      <c r="AC65" s="39"/>
+      <c r="AD65" s="39" t="s">
+        <v>108</v>
+      </c>
+      <c r="AE65" s="39"/>
+      <c r="AF65" s="47" t="s">
+        <v>109</v>
+      </c>
+      <c r="AG65" s="39"/>
+    </row>
+    <row r="66" spans="4:33">
+      <c r="D66" s="1"/>
+      <c r="E66" s="1"/>
+      <c r="F66" s="1"/>
+      <c r="G66" s="1"/>
+      <c r="H66" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="I66" s="26">
+        <v>1</v>
+      </c>
+      <c r="J66" s="11">
+        <v>1</v>
+      </c>
+      <c r="K66" s="12">
+        <v>0</v>
+      </c>
+      <c r="L66" s="12">
+        <v>0</v>
+      </c>
+      <c r="M66" s="13">
+        <v>0</v>
+      </c>
+      <c r="N66" s="11">
+        <v>0</v>
+      </c>
+      <c r="O66" s="14">
+        <v>1</v>
+      </c>
+      <c r="P66" s="14">
+        <v>0</v>
+      </c>
+      <c r="Q66" s="15">
+        <v>0</v>
+      </c>
+      <c r="R66" s="16">
+        <v>1</v>
+      </c>
+      <c r="S66" s="14">
+        <v>1</v>
+      </c>
+      <c r="T66" s="14">
+        <v>0</v>
+      </c>
+      <c r="U66" s="15">
+        <v>0</v>
+      </c>
+      <c r="V66" s="16">
+        <v>0</v>
+      </c>
+      <c r="W66" s="14">
+        <v>1</v>
+      </c>
+      <c r="X66" s="14">
+        <v>1</v>
+      </c>
+      <c r="Y66" s="15">
+        <v>1</v>
+      </c>
+      <c r="AA66" t="s">
+        <v>27</v>
+      </c>
+      <c r="AB66" s="36" t="s">
+        <v>103</v>
+      </c>
+      <c r="AC66" s="36" t="s">
+        <v>118</v>
+      </c>
+      <c r="AD66" s="34" t="s">
+        <v>119</v>
+      </c>
+      <c r="AE66" s="33" t="s">
+        <v>109</v>
+      </c>
+      <c r="AF66" s="40" t="s">
+        <v>42</v>
+      </c>
+      <c r="AG66" s="40"/>
+    </row>
+    <row r="67" spans="4:33">
+      <c r="D67" s="1"/>
+      <c r="E67" s="1"/>
+      <c r="F67" s="1"/>
+      <c r="G67" s="1"/>
+      <c r="H67" s="4"/>
+      <c r="I67" s="5"/>
+      <c r="J67" s="41" t="s">
+        <v>8</v>
+      </c>
+      <c r="K67" s="42"/>
+      <c r="L67" s="42"/>
+      <c r="M67" s="6">
+        <v>1</v>
+      </c>
+      <c r="N67" s="41" t="s">
+        <v>9</v>
+      </c>
+      <c r="O67" s="42"/>
+      <c r="P67" s="42"/>
+      <c r="Q67" s="6">
+        <v>1</v>
+      </c>
+      <c r="R67" s="41" t="s">
+        <v>11</v>
+      </c>
+      <c r="S67" s="42"/>
+      <c r="T67" s="42"/>
+      <c r="U67" s="6">
+        <v>0</v>
+      </c>
+      <c r="V67" s="41" t="s">
+        <v>10</v>
+      </c>
+      <c r="W67" s="42"/>
+      <c r="X67" s="42"/>
+      <c r="Y67" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="4:33">
+      <c r="D68" s="1"/>
+      <c r="E68" s="1"/>
+      <c r="F68" s="1"/>
+      <c r="G68" s="1"/>
+      <c r="H68" s="2"/>
+      <c r="I68" s="1"/>
+      <c r="J68" s="1"/>
+      <c r="K68" s="1"/>
+      <c r="L68" s="1"/>
+      <c r="M68" s="1"/>
+      <c r="N68" s="1"/>
+    </row>
+    <row r="69" spans="4:33">
+      <c r="D69" s="1"/>
+      <c r="E69" s="1"/>
+      <c r="F69" s="1"/>
+      <c r="G69" s="1"/>
+      <c r="H69" s="48" t="s">
+        <v>94</v>
+      </c>
+      <c r="I69" s="48"/>
+      <c r="J69" s="48"/>
+      <c r="K69" s="48"/>
+      <c r="L69" s="48"/>
+      <c r="M69" s="48"/>
+      <c r="N69" s="48"/>
+      <c r="O69" s="48"/>
+      <c r="P69" s="48"/>
+      <c r="Q69" s="48"/>
+      <c r="R69" s="48"/>
+      <c r="S69" s="48"/>
+      <c r="T69" s="48"/>
+      <c r="U69" s="48"/>
+      <c r="V69" s="48"/>
+      <c r="W69" s="48"/>
+      <c r="X69" s="48"/>
+      <c r="Y69" s="48"/>
+    </row>
+    <row r="70" spans="4:33">
+      <c r="D70" s="1"/>
+      <c r="E70" s="1"/>
+      <c r="F70" s="1"/>
+      <c r="G70" s="1"/>
+      <c r="H70" s="49" t="s">
+        <v>95</v>
+      </c>
+      <c r="I70" s="25"/>
+      <c r="J70" s="8">
+        <v>1</v>
+      </c>
+      <c r="K70" s="9">
+        <v>1</v>
+      </c>
+      <c r="L70" s="9">
+        <v>0</v>
+      </c>
+      <c r="M70" s="10">
+        <v>0</v>
+      </c>
+      <c r="N70" s="8">
+        <v>1</v>
+      </c>
+      <c r="O70" s="9">
+        <v>0</v>
+      </c>
+      <c r="P70" s="9">
+        <v>1</v>
+      </c>
+      <c r="Q70" s="10">
+        <v>0</v>
+      </c>
+      <c r="R70" s="8">
+        <v>0</v>
+      </c>
+      <c r="S70" s="9">
+        <v>1</v>
+      </c>
+      <c r="T70" s="9">
+        <v>0</v>
+      </c>
+      <c r="U70" s="10">
+        <v>0</v>
+      </c>
+      <c r="V70" s="17">
+        <v>1</v>
+      </c>
+      <c r="W70" s="18">
+        <v>1</v>
+      </c>
+      <c r="X70" s="18">
+        <v>1</v>
+      </c>
+      <c r="Y70" s="19">
+        <v>1</v>
+      </c>
+      <c r="AA70" t="s">
+        <v>21</v>
+      </c>
+      <c r="AB70" s="39" t="s">
+        <v>105</v>
+      </c>
+      <c r="AC70" s="39"/>
+      <c r="AD70" s="39" t="s">
+        <v>105</v>
+      </c>
+      <c r="AE70" s="39"/>
+      <c r="AF70" s="39" t="s">
+        <v>110</v>
+      </c>
+      <c r="AG70" s="39"/>
+    </row>
+    <row r="71" spans="4:33">
+      <c r="H71" s="50"/>
+      <c r="I71" s="25"/>
+      <c r="J71" s="20">
+        <v>0</v>
+      </c>
+      <c r="K71" s="21">
+        <v>1</v>
+      </c>
+      <c r="L71" s="21">
+        <v>0</v>
+      </c>
+      <c r="M71" s="22">
+        <v>0</v>
+      </c>
+      <c r="N71" s="20">
+        <v>0</v>
+      </c>
+      <c r="O71" s="27">
+        <v>1</v>
+      </c>
+      <c r="P71" s="27">
+        <v>0</v>
+      </c>
+      <c r="Q71" s="23">
+        <v>1</v>
+      </c>
+      <c r="R71" s="24">
+        <v>1</v>
+      </c>
+      <c r="S71" s="28">
+        <v>0</v>
+      </c>
+      <c r="T71" s="28">
+        <v>0</v>
+      </c>
+      <c r="U71" s="23">
+        <v>0</v>
+      </c>
+      <c r="V71" s="24">
+        <v>1</v>
+      </c>
+      <c r="W71" s="28">
+        <v>0</v>
+      </c>
+      <c r="X71" s="28">
+        <v>0</v>
+      </c>
+      <c r="Y71" s="23">
+        <v>0</v>
+      </c>
+      <c r="AA71" t="s">
+        <v>27</v>
+      </c>
+      <c r="AB71" s="36" t="s">
+        <v>96</v>
+      </c>
+      <c r="AC71" s="36" t="s">
+        <v>116</v>
+      </c>
+      <c r="AD71" s="33" t="s">
+        <v>117</v>
+      </c>
+      <c r="AE71" s="34" t="s">
+        <v>110</v>
+      </c>
+      <c r="AF71" s="40" t="s">
+        <v>42</v>
+      </c>
+      <c r="AG71" s="40"/>
+    </row>
+    <row r="72" spans="4:33">
+      <c r="H72" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="I72" s="26">
+        <v>1</v>
+      </c>
+      <c r="J72" s="11">
+        <v>0</v>
+      </c>
+      <c r="K72" s="12">
+        <v>0</v>
+      </c>
+      <c r="L72" s="12">
+        <v>0</v>
+      </c>
+      <c r="M72" s="13">
+        <v>0</v>
+      </c>
+      <c r="N72" s="11">
+        <v>1</v>
+      </c>
+      <c r="O72" s="14">
+        <v>1</v>
+      </c>
+      <c r="P72" s="14">
+        <v>1</v>
+      </c>
+      <c r="Q72" s="15">
+        <v>1</v>
+      </c>
+      <c r="R72" s="16">
+        <v>1</v>
+      </c>
+      <c r="S72" s="14">
+        <v>1</v>
+      </c>
+      <c r="T72" s="14">
+        <v>0</v>
+      </c>
+      <c r="U72" s="15">
+        <v>1</v>
+      </c>
+      <c r="V72" s="16">
+        <v>0</v>
+      </c>
+      <c r="W72" s="14">
+        <v>1</v>
+      </c>
+      <c r="X72" s="14">
+        <v>1</v>
+      </c>
+      <c r="Y72" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="4:33">
+      <c r="H73" s="4"/>
+      <c r="I73" s="5"/>
+      <c r="J73" s="41" t="s">
+        <v>8</v>
+      </c>
+      <c r="K73" s="42"/>
+      <c r="L73" s="42"/>
+      <c r="M73" s="6">
+        <v>0</v>
+      </c>
+      <c r="N73" s="41" t="s">
+        <v>9</v>
+      </c>
+      <c r="O73" s="42"/>
+      <c r="P73" s="42"/>
+      <c r="Q73" s="6">
+        <v>1</v>
+      </c>
+      <c r="R73" s="41" t="s">
+        <v>11</v>
+      </c>
+      <c r="S73" s="42"/>
+      <c r="T73" s="42"/>
+      <c r="U73" s="6">
+        <v>0</v>
+      </c>
+      <c r="V73" s="41" t="s">
+        <v>10</v>
+      </c>
+      <c r="W73" s="42"/>
+      <c r="X73" s="42"/>
+      <c r="Y73" s="6">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="92">
-    <mergeCell ref="AF45:AG45"/>
-    <mergeCell ref="AF46:AG46"/>
-    <mergeCell ref="J48:L48"/>
-    <mergeCell ref="N48:P48"/>
-    <mergeCell ref="R48:T48"/>
-    <mergeCell ref="V48:X48"/>
-    <mergeCell ref="AF39:AG39"/>
-    <mergeCell ref="AF40:AG40"/>
-    <mergeCell ref="J42:L42"/>
-    <mergeCell ref="N42:P42"/>
-    <mergeCell ref="R42:T42"/>
-    <mergeCell ref="V42:X42"/>
-    <mergeCell ref="AB39:AE39"/>
-    <mergeCell ref="AF33:AG33"/>
-    <mergeCell ref="AF34:AG34"/>
-    <mergeCell ref="J36:L36"/>
-    <mergeCell ref="N36:P36"/>
-    <mergeCell ref="R36:T36"/>
-    <mergeCell ref="V36:X36"/>
-    <mergeCell ref="AB33:AE33"/>
-    <mergeCell ref="AF26:AG26"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="H27:H28"/>
-    <mergeCell ref="AF27:AG27"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="AF28:AG28"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="H26:Y26"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="J30:L30"/>
-    <mergeCell ref="N30:P30"/>
-    <mergeCell ref="R30:T30"/>
-    <mergeCell ref="V30:X30"/>
-    <mergeCell ref="H32:Y32"/>
-    <mergeCell ref="H33:H34"/>
-    <mergeCell ref="H38:Y38"/>
-    <mergeCell ref="H39:H40"/>
-    <mergeCell ref="H44:Y44"/>
-    <mergeCell ref="AB45:AC45"/>
-    <mergeCell ref="AD45:AE45"/>
-    <mergeCell ref="H45:H46"/>
-    <mergeCell ref="AB27:AC27"/>
-    <mergeCell ref="AD27:AE27"/>
-    <mergeCell ref="AB26:AC26"/>
-    <mergeCell ref="AD26:AE26"/>
-    <mergeCell ref="AF15:AG15"/>
-    <mergeCell ref="AB20:AC20"/>
-    <mergeCell ref="AD20:AE20"/>
-    <mergeCell ref="AF20:AG20"/>
-    <mergeCell ref="AF21:AG21"/>
-    <mergeCell ref="AF14:AG14"/>
-    <mergeCell ref="AB8:AC8"/>
-    <mergeCell ref="AD8:AE8"/>
-    <mergeCell ref="AF9:AG9"/>
-    <mergeCell ref="AB14:AC14"/>
-    <mergeCell ref="AD14:AE14"/>
-    <mergeCell ref="AF3:AG3"/>
-    <mergeCell ref="AF8:AG8"/>
-    <mergeCell ref="AB2:AC2"/>
-    <mergeCell ref="AB1:AC1"/>
-    <mergeCell ref="AD1:AE1"/>
-    <mergeCell ref="AF1:AG1"/>
-    <mergeCell ref="AD2:AE2"/>
-    <mergeCell ref="AF2:AG2"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="H2:H3"/>
-    <mergeCell ref="H1:Y1"/>
+  <mergeCells count="141">
+    <mergeCell ref="J73:L73"/>
+    <mergeCell ref="N73:P73"/>
+    <mergeCell ref="R73:T73"/>
+    <mergeCell ref="V73:X73"/>
+    <mergeCell ref="H69:Y69"/>
+    <mergeCell ref="H70:H71"/>
+    <mergeCell ref="AB70:AC70"/>
+    <mergeCell ref="AD70:AE70"/>
+    <mergeCell ref="AF70:AG70"/>
+    <mergeCell ref="AF71:AG71"/>
+    <mergeCell ref="H64:H65"/>
+    <mergeCell ref="AF64:AG64"/>
+    <mergeCell ref="AF65:AG65"/>
+    <mergeCell ref="J67:L67"/>
+    <mergeCell ref="N67:P67"/>
+    <mergeCell ref="R67:T67"/>
+    <mergeCell ref="V67:X67"/>
+    <mergeCell ref="J61:L61"/>
+    <mergeCell ref="N61:P61"/>
+    <mergeCell ref="R61:T61"/>
+    <mergeCell ref="V61:X61"/>
+    <mergeCell ref="H63:Y63"/>
+    <mergeCell ref="AB64:AC64"/>
+    <mergeCell ref="AD64:AE64"/>
+    <mergeCell ref="AB65:AC65"/>
+    <mergeCell ref="AD65:AE65"/>
+    <mergeCell ref="AF66:AG66"/>
+    <mergeCell ref="H57:Y57"/>
+    <mergeCell ref="H58:H59"/>
+    <mergeCell ref="AB58:AE58"/>
+    <mergeCell ref="AF58:AG58"/>
+    <mergeCell ref="AF59:AG59"/>
+    <mergeCell ref="E54:F54"/>
+    <mergeCell ref="J55:L55"/>
+    <mergeCell ref="N55:P55"/>
+    <mergeCell ref="R55:T55"/>
+    <mergeCell ref="V55:X55"/>
+    <mergeCell ref="E52:F52"/>
+    <mergeCell ref="H52:H53"/>
+    <mergeCell ref="AB52:AC52"/>
+    <mergeCell ref="AD52:AE52"/>
+    <mergeCell ref="AF52:AG52"/>
+    <mergeCell ref="E53:F53"/>
+    <mergeCell ref="AF53:AG53"/>
+    <mergeCell ref="E51:F51"/>
+    <mergeCell ref="H51:Y51"/>
+    <mergeCell ref="AB51:AC51"/>
+    <mergeCell ref="AD51:AE51"/>
+    <mergeCell ref="AF51:AG51"/>
+    <mergeCell ref="J17:L17"/>
+    <mergeCell ref="N17:P17"/>
+    <mergeCell ref="R17:T17"/>
+    <mergeCell ref="V17:X17"/>
+    <mergeCell ref="R5:T5"/>
+    <mergeCell ref="V5:X5"/>
+    <mergeCell ref="J5:L5"/>
     <mergeCell ref="J23:L23"/>
     <mergeCell ref="N23:P23"/>
     <mergeCell ref="R23:T23"/>
@@ -3309,14 +4539,77 @@
     <mergeCell ref="N11:P11"/>
     <mergeCell ref="V11:X11"/>
     <mergeCell ref="R11:T11"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="H1:Y1"/>
+    <mergeCell ref="AF3:AG3"/>
+    <mergeCell ref="AF8:AG8"/>
+    <mergeCell ref="AB2:AC2"/>
+    <mergeCell ref="AB1:AC1"/>
+    <mergeCell ref="AD1:AE1"/>
+    <mergeCell ref="AF1:AG1"/>
+    <mergeCell ref="AD2:AE2"/>
+    <mergeCell ref="AF2:AG2"/>
     <mergeCell ref="N5:P5"/>
-    <mergeCell ref="J17:L17"/>
-    <mergeCell ref="N17:P17"/>
-    <mergeCell ref="R17:T17"/>
-    <mergeCell ref="V17:X17"/>
-    <mergeCell ref="R5:T5"/>
-    <mergeCell ref="V5:X5"/>
-    <mergeCell ref="J5:L5"/>
+    <mergeCell ref="AF14:AG14"/>
+    <mergeCell ref="AB8:AC8"/>
+    <mergeCell ref="AD8:AE8"/>
+    <mergeCell ref="AF9:AG9"/>
+    <mergeCell ref="AB14:AC14"/>
+    <mergeCell ref="AD14:AE14"/>
+    <mergeCell ref="AF15:AG15"/>
+    <mergeCell ref="AB20:AC20"/>
+    <mergeCell ref="AD20:AE20"/>
+    <mergeCell ref="AF20:AG20"/>
+    <mergeCell ref="AF21:AG21"/>
+    <mergeCell ref="H45:H46"/>
+    <mergeCell ref="AB27:AC27"/>
+    <mergeCell ref="AD27:AE27"/>
+    <mergeCell ref="AB26:AC26"/>
+    <mergeCell ref="AD26:AE26"/>
+    <mergeCell ref="H32:Y32"/>
+    <mergeCell ref="H33:H34"/>
+    <mergeCell ref="H38:Y38"/>
+    <mergeCell ref="H39:H40"/>
+    <mergeCell ref="H44:Y44"/>
+    <mergeCell ref="AF33:AG33"/>
+    <mergeCell ref="AF34:AG34"/>
+    <mergeCell ref="J36:L36"/>
+    <mergeCell ref="N36:P36"/>
+    <mergeCell ref="R36:T36"/>
+    <mergeCell ref="V36:X36"/>
+    <mergeCell ref="AB33:AE33"/>
+    <mergeCell ref="AF39:AG39"/>
+    <mergeCell ref="AF40:AG40"/>
+    <mergeCell ref="J42:L42"/>
+    <mergeCell ref="N42:P42"/>
+    <mergeCell ref="R42:T42"/>
+    <mergeCell ref="V42:X42"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="J30:L30"/>
+    <mergeCell ref="N30:P30"/>
+    <mergeCell ref="R30:T30"/>
+    <mergeCell ref="V30:X30"/>
+    <mergeCell ref="AF26:AG26"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="H27:H28"/>
+    <mergeCell ref="AF27:AG27"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="AF28:AG28"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="H26:Y26"/>
+    <mergeCell ref="AB39:AE39"/>
+    <mergeCell ref="AF45:AG45"/>
+    <mergeCell ref="AF46:AG46"/>
+    <mergeCell ref="J48:L48"/>
+    <mergeCell ref="N48:P48"/>
+    <mergeCell ref="R48:T48"/>
+    <mergeCell ref="V48:X48"/>
+    <mergeCell ref="AB45:AC45"/>
+    <mergeCell ref="AD45:AE45"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="180" verticalDpi="180" r:id="rId1"/>
